--- a/Horas/Marzo 2012.xlsx
+++ b/Horas/Marzo 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -57,10 +57,13 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Día</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,9 +250,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -566,7 +566,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -601,11 +601,11 @@
         <v>0.75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2:F23" si="0">IF(MINUTE(C2)&lt;=MINUTE(D2),IF(E2="NO",HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1),IF(E2="NO",HOUR(D2)-HOUR(C2)-1,HOUR(D2)-HOUR(C2)-1-1))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G23" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
@@ -622,21 +622,21 @@
         <v>40970</v>
       </c>
       <c r="C3" s="14">
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="D3" s="14">
         <v>0.75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -647,21 +647,21 @@
         <v>40973</v>
       </c>
       <c r="C4" s="14">
-        <v>0.41666666666666669</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D4" s="14">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -675,18 +675,18 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D5" s="14">
-        <v>0.75</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
@@ -698,21 +698,19 @@
       <c r="B6" s="2">
         <v>40975</v>
       </c>
-      <c r="C6" s="14">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.75</v>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -724,21 +722,21 @@
         <v>40976</v>
       </c>
       <c r="C7" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D7" s="14">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -750,21 +748,21 @@
         <v>40977</v>
       </c>
       <c r="C8" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D8" s="14">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -775,21 +773,21 @@
         <v>40980</v>
       </c>
       <c r="C9" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D9" s="14">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -800,17 +798,17 @@
         <v>40981</v>
       </c>
       <c r="C10" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D10" s="14">
         <v>0.75</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
@@ -825,21 +823,21 @@
         <v>40982</v>
       </c>
       <c r="C11" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D11" s="14">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -850,21 +848,21 @@
         <v>40983</v>
       </c>
       <c r="C12" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.4375</v>
       </c>
       <c r="D12" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -874,21 +872,19 @@
       <c r="B13" s="15">
         <v>40984</v>
       </c>
-      <c r="C13" s="14">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.75</v>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -900,21 +896,21 @@
         <v>40987</v>
       </c>
       <c r="C14" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D14" s="14">
         <v>0.75</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -925,17 +921,17 @@
         <v>40988</v>
       </c>
       <c r="C15" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D15" s="14">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
@@ -950,21 +946,21 @@
         <v>40989</v>
       </c>
       <c r="C16" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D16" s="14">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,17 +971,17 @@
         <v>40990</v>
       </c>
       <c r="C17" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D17" s="14">
         <v>0.75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
@@ -999,21 +995,19 @@
       <c r="B18" s="2">
         <v>40991</v>
       </c>
-      <c r="C18" s="14">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.75</v>
+      <c r="C18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1025,21 +1019,21 @@
         <v>40994</v>
       </c>
       <c r="C19" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.4375</v>
       </c>
       <c r="D19" s="14">
         <v>0.75</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,21 +1044,21 @@
         <v>40995</v>
       </c>
       <c r="C20" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D20" s="14">
-        <v>0.75</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(MINUTE(C20)&lt;=MINUTE(D20),IF(E20="NO",HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1),IF(E20="NO",HOUR(D20)-HOUR(C20)-1,HOUR(D20)-HOUR(C20)-1-1))</f>
         <v>8</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(MINUTE(D20)-MINUTE(C20)&lt;0,MINUTE(D20)-MINUTE(C20)+60,MINUTE(D20)-MINUTE(C20))</f>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,20 +1069,20 @@
         <v>40996</v>
       </c>
       <c r="C21" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.375</v>
       </c>
       <c r="D21" s="14">
         <v>0.75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(MINUTE(C21)&lt;=MINUTE(D21),IF(E21="NO",HOUR(D21)-HOUR(C21),HOUR(D21)-HOUR(C21)-1),IF(E21="NO",HOUR(D21)-HOUR(C21)-1,HOUR(D21)-HOUR(C21)-1-1))</f>
         <v>8</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" si="1"/>
+        <f>IF(MINUTE(D21)-MINUTE(C21)&lt;0,MINUTE(D21)-MINUTE(C21)+60,MINUTE(D21)-MINUTE(C21))</f>
         <v>0</v>
       </c>
     </row>
@@ -1100,13 +1094,13 @@
         <v>40997</v>
       </c>
       <c r="C22" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.375</v>
       </c>
       <c r="D22" s="14">
         <v>0.75</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>13</v>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
@@ -1125,13 +1119,13 @@
         <v>40998</v>
       </c>
       <c r="C23" s="14">
-        <v>0.41666666666666702</v>
+        <v>0.375</v>
       </c>
       <c r="D23" s="14">
         <v>0.75</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>13</v>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="0"/>
@@ -1148,11 +1142,11 @@
       </c>
       <c r="F24" s="13">
         <f>SUM(F2:F23)</f>
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>0.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,7 +1155,7 @@
       </c>
       <c r="F25" s="16">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="G25" s="17"/>
     </row>
@@ -1180,7 +1174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1192,7 +1186,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Marzo 2012.xlsx
+++ b/Horas/Marzo 2012.xlsx
@@ -675,7 +675,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D5" s="14">
-        <v>0.85416666666666663</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -686,7 +686,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
@@ -1047,7 +1047,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D20" s="14">
-        <v>0.85416666666666663</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G20" s="12">
         <f>IF(MINUTE(D20)-MINUTE(C20)&lt;0,MINUTE(D20)-MINUTE(C20)+60,MINUTE(D20)-MINUTE(C20))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,21 +1069,21 @@
         <v>40996</v>
       </c>
       <c r="C21" s="14">
-        <v>0.375</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="D21" s="14">
-        <v>0.75</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="12">
         <f>IF(MINUTE(C21)&lt;=MINUTE(D21),IF(E21="NO",HOUR(D21)-HOUR(C21),HOUR(D21)-HOUR(C21)-1),IF(E21="NO",HOUR(D21)-HOUR(C21)-1,HOUR(D21)-HOUR(C21)-1-1))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="12">
         <f>IF(MINUTE(D21)-MINUTE(C21)&lt;0,MINUTE(D21)-MINUTE(C21)+60,MINUTE(D21)-MINUTE(C21))</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,14 +1122,14 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="14">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="1"/>
@@ -1142,11 +1142,11 @@
       </c>
       <c r="F24" s="13">
         <f>SUM(F2:F23)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="F25" s="16">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G25" s="17"/>
     </row>
